--- a/src/resources/templates/text_block_templates.xlsx
+++ b/src/resources/templates/text_block_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason D'Amico\Documents\cdf\pgov-cover-sheet-reader\src\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B6C7B5-592A-4FDC-B1CC-CF1CFAAEF53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA5C773-4822-46AD-8037-97A38EB33537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Context</t>
   </si>
   <si>
-    <t>Sentence Plural Template</t>
-  </si>
-  <si>
     <t>Summary_Report</t>
   </si>
   <si>
@@ -58,13 +55,16 @@
     <t>Currently in template</t>
   </si>
   <si>
-    <t>Variable In Code</t>
-  </si>
-  <si>
     <t>goal_status_breakdown_bullet</t>
   </si>
   <si>
     <t>Bullet point describing a each goal and its change quarter-over-quarter</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Sentence Template Plural</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="1" sqref="A3:XFD3 A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,48 +954,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/templates/text_block_templates.xlsx
+++ b/src/resources/templates/text_block_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason D'Amico\Documents\cdf\pgov-cover-sheet-reader\src\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA5C773-4822-46AD-8037-97A38EB33537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F85C1-4BFC-484C-A879-64B5EF807720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Template Document</t>
   </si>
@@ -43,6 +43,15 @@
     <t>**{APG name}**'s team identified the status of the goal as {previous goal status} this quarter, remaining consistent at its reported status of {current goal status} last quarter.</t>
   </si>
   <si>
+    <t>speedometer_text</t>
+  </si>
+  <si>
+    <t>APG_Summary</t>
+  </si>
+  <si>
+    <t>Underneath speedometer (current status) graphic on each APG page.</t>
+  </si>
+  <si>
     <t>**{APG name}**'s team identified the status of the goal as {previous goal status} this quarter, progressing from a status of {current goal status} last quarter.</t>
   </si>
   <si>
@@ -61,10 +70,16 @@
     <t>Bullet point describing a each goal and its change quarter-over-quarter</t>
   </si>
   <si>
+    <t>The goal team reported this goal as **{status}** of its expected progression in {quarter} {year}.</t>
+  </si>
+  <si>
     <t>Variable Name</t>
   </si>
   <si>
     <t>Sentence Template Plural</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -932,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -963,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -972,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="144" x14ac:dyDescent="0.3">
@@ -980,22 +995,39 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/templates/text_block_templates.xlsx
+++ b/src/resources/templates/text_block_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason D'Amico\Documents\cdf\pgov-cover-sheet-reader\src\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F85C1-4BFC-484C-A879-64B5EF807720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23131A28-33F8-4D44-AA68-55C3790B6D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Template Document</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>One feature of the auto-generated template is that it pulls the most common recurring challenges across the agency. This text block summarizes how many times a recurring challenge has occurred for a given agency.</t>
+  </si>
+  <si>
+    <t>recurring_challenge_text</t>
+  </si>
+  <si>
+    <t>**{challenge}** has been reported as challenge for the **{goal}** team in each of the last **{challenge count} quarters**.</t>
   </si>
 </sst>
 </file>
@@ -947,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,20 +1022,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
